--- a/手順書.xlsx
+++ b/手順書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53FE4B0-746A-45D8-B06B-6457C51FC450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BA925-B1B0-4971-880A-F2F881F5488F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17250" windowHeight="12220" xr2:uid="{E1BED34C-7FC8-4E5A-8716-7489DC792F91}"/>
   </bookViews>
@@ -98,21 +98,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E014D3C0-7622-48EE-9CD0-1B52273A407D}"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBF4908-13D9-4756-B3AB-BA81DD8E8E5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -128,7 +128,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="228600"/>
+          <a:off x="660400" y="10972800"/>
           <a:ext cx="7152600" cy="5040000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -142,21 +142,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D7A435-CE5B-499E-B759-4993E64B99E1}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E014D3C0-7622-48EE-9CD0-1B52273A407D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -172,7 +172,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="5715000"/>
+          <a:off x="660400" y="228600"/>
           <a:ext cx="7152600" cy="5040000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -182,157 +182,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69542DEF-DF71-4ED8-82AE-AE2CCDC193A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6330950" y="730250"/>
-          <a:ext cx="488950" cy="374650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F7F703-7AC2-4A0D-BCD0-6DBD3961B6F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="7169150"/>
-          <a:ext cx="1765300" cy="1416050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A91E8FF-D078-4C96-97C5-ACC5C13FF9EC}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D7A435-CE5B-499E-B759-4993E64B99E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,7 +216,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660400" y="10972800"/>
+          <a:off x="660400" y="5715000"/>
           <a:ext cx="7152600" cy="5040000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -360,23 +228,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094A5132-B05C-41F5-804F-DC17EA879A48}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69542DEF-DF71-4ED8-82AE-AE2CCDC193A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -384,8 +252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="14846300"/>
-          <a:ext cx="704850" cy="374650"/>
+          <a:off x="6330950" y="730250"/>
+          <a:ext cx="488950" cy="374650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -424,17 +292,83 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F7F703-7AC2-4A0D-BCD0-6DBD3961B6F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="7169150"/>
+          <a:ext cx="1765300" cy="1416050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -472,13 +406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -538,13 +472,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -824,100 +758,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="吹き出し: 角を丸めた四角形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7B78FC-C4F3-4E34-80B8-8965A69F4B6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7899400" y="14077950"/>
-          <a:ext cx="2247900" cy="1117600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -316878"/>
-            <a:gd name="adj2" fmla="val 35797"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前回の説教を削除するため</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -955,14 +806,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -977,7 +828,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6489700" y="11436350"/>
+          <a:off x="6489700" y="11398250"/>
           <a:ext cx="1231900" cy="374650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1021,14 +872,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1043,7 +894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8178800" y="11150600"/>
+          <a:off x="8178800" y="11112500"/>
           <a:ext cx="2247900" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1097,13 +948,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1163,13 +1014,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1235,13 +1086,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1301,13 +1152,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1384,13 +1235,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1407,7 +1258,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1428,13 +1279,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1500,13 +1351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1562,69 +1413,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99AD31E-3FF6-4774-A09B-B54095B9C5C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="660400" y="16687800"/>
-          <a:ext cx="7152600" cy="5040000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3150AD34-2BE6-4053-BA1E-94E2270F90E9}"/>
+        <xdr:cNvPr id="41" name="吹き出し: 角を丸めた四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9E4ED5-5A90-4340-B1B2-E3B83F611E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,18 +1439,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7035800" y="19227800"/>
-          <a:ext cx="266700" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+          <a:off x="7912100" y="14535150"/>
+          <a:ext cx="2247900" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -138065"/>
+            <a:gd name="adj2" fmla="val -118749"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1666,7 +1471,26 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今回の説教を追加するため</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1674,23 +1498,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="吹き出し: 角を丸めた四角形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B6E5EF-6428-4332-8F37-DD9FD92959E6}"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F4D05A-E674-4503-8762-CFF222685E88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,494 +1522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="18745200"/>
-          <a:ext cx="2247900" cy="1117600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -75353"/>
-            <a:gd name="adj2" fmla="val 7388"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前回の説教を削除するため</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D034242-7EBD-458D-829C-BB0F6F0E39B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="660400" y="22174200"/>
-          <a:ext cx="7152600" cy="5040000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="吹き出し: 角を丸めた四角形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0782FD4B-8861-490A-AF50-9FA86B04B1EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7912100" y="25825450"/>
-          <a:ext cx="2247900" cy="1117600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -294845"/>
-            <a:gd name="adj2" fmla="val 64206"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリック（削除確定）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前回の説教を削除するため</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>548600</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6A7BE2-1B19-4791-9419-C86590ECA4E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="660400" y="27432000"/>
-          <a:ext cx="7152600" cy="5040000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D54C3CF-BD05-40F4-AEEF-66BCBFDBD392}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1085850" y="30740350"/>
-          <a:ext cx="1416050" cy="539750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="吹き出し: 角を丸めた四角形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3427F19-1EED-4CEB-8CCA-F5CE8CF262B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="30403800"/>
-          <a:ext cx="2247900" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -282415"/>
-            <a:gd name="adj2" fmla="val 17382"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>成功すると、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>test.mp3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>がなくなる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="吹き出し: 角を丸めた四角形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BAB5B2-8250-4EFF-8888-025CAD6C8493}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="31318200"/>
-          <a:ext cx="2247900" cy="1117600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -138065"/>
-            <a:gd name="adj2" fmla="val -118749"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今回の説教を追加するため</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89378FE-497D-48FD-A435-F78CD2537B0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5359400" y="30257750"/>
+          <a:off x="5346700" y="13474700"/>
           <a:ext cx="704850" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/手順書.xlsx
+++ b/手順書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BA925-B1B0-4971-880A-F2F881F5488F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D2E1D-144B-41DA-B1A2-1A6F06FFA014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17250" windowHeight="12220" xr2:uid="{E1BED34C-7FC8-4E5A-8716-7489DC792F91}"/>
   </bookViews>
@@ -536,7 +536,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>test.mp3 </a:t>
+            <a:t>20200405.mp3 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1339,7 +1339,19 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>成功すると、この表示になる。</a:t>
+            <a:t>成功すると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>20200405.mp3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が追加される。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1351,8 +1363,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1373,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="31076900"/>
-          <a:ext cx="6191250" cy="292100"/>
+          <a:off x="1143000" y="31362650"/>
+          <a:ext cx="6191250" cy="234950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
